--- a/test-1.xlsx
+++ b/test-1.xlsx
@@ -414,14 +414,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>59,800</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>96,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>72,200</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/test-1.xlsx
+++ b/test-1.xlsx
@@ -425,21 +425,21 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>59,800</t>
+          <t>58,500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>96,400</t>
+          <t>95,200</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>72,200</t>
+          <t>70,500</t>
         </is>
       </c>
     </row>
